--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>
@@ -2833,7 +2833,7 @@
   <dimension ref="A1:C281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>
@@ -2832,9 +2832,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$281</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="839">
   <si>
     <t>IndCode</t>
   </si>
@@ -597,7 +597,7 @@
     <t>% of population below LMIC poverty rates ($3.20 a day)</t>
   </si>
   <si>
-    <t>% de la population vivant sous 3.20 de dollars US par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure</t>
+    <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure</t>
   </si>
   <si>
     <t>PovHC550</t>
@@ -606,7 +606,7 @@
     <t>% of population below UMIC poverty rates ($5.50 a day)</t>
   </si>
   <si>
-    <t>% de la population vivant sous 3.20 de dollars US par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure</t>
+    <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure</t>
   </si>
   <si>
     <t>ShareTop20</t>
@@ -894,7 +894,7 @@
     <t>Total exports of ICT services, millions of USD</t>
   </si>
   <si>
-    <t>Exportations totales de services TIC, millions de dollars US</t>
+    <t>Exportations totales de services TIC, millions USD</t>
   </si>
   <si>
     <t>ExpICTSrvPrp</t>
@@ -912,7 +912,7 @@
     <t>Total exports of digital services, millions of USD</t>
   </si>
   <si>
-    <t>Exportations totales de services numériques, millions de dollars US</t>
+    <t>Exportations totales de services numériques, millions USD</t>
   </si>
   <si>
     <t>ExpDigSrvPrp</t>
@@ -1224,7 +1224,7 @@
     <t>Total exports of unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits non transformés (millions de dollars US)</t>
+    <t>Exportations totales de produits non transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpSemiProc</t>
@@ -1233,7 +1233,7 @@
     <t>Total exports of semi-processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits semi-transformés (millions de dollars US)</t>
+    <t>Exportations totales de produits semi-transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpFullyProc</t>
@@ -1242,7 +1242,7 @@
     <t>Total exports of fully processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Total des exportations de produits transformés (millions de dollars US)</t>
+    <t>Total des exportations de produits transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpAllProc</t>
@@ -1251,7 +1251,7 @@
     <t>Total exports of processed and unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits transformés et non transformés (millions de dollars US)</t>
+    <t>Exportations totales de produits transformés et non transformés (millions USD)</t>
   </si>
   <si>
     <t>ImpUnproc</t>
@@ -1512,7 +1512,7 @@
     <t>Portfolio investment inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées des investissements de portefeuille (millions de dollars US)</t>
+    <t>Entrées des investissements de portefeuille (millions USD)</t>
   </si>
   <si>
     <t>ODA</t>
@@ -1521,7 +1521,7 @@
     <t>Net Official Development Assistance (ODA) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées nettes d'aide publique au développement (APD) (millions de dollars US)</t>
+    <t>Entrées nettes d'aide publique au développement (APD) (millions USD)</t>
   </si>
   <si>
     <t>UNCTADFDI</t>
@@ -1530,7 +1530,7 @@
     <t>Foreign Direct Investment (FDI) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées d’investissements directs étrangers (IDE) (millions de dollars US)</t>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions USD)</t>
   </si>
   <si>
     <t>Remit</t>
@@ -1539,7 +1539,7 @@
     <t>Remittances inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées de transferts des migrants (millions de dollars US)</t>
+    <t>Entrées de transferts des migrants (millions USD)</t>
   </si>
   <si>
     <t>TotalFinInflows</t>
@@ -1548,7 +1548,7 @@
     <t>Total financial inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées financières totales (millions de dollars US)</t>
+    <t>Entrées financières totales (millions USD)</t>
   </si>
   <si>
     <t>GrNatSavPrv</t>
@@ -1557,7 +1557,7 @@
     <t>Gross private saving (millions of USD)</t>
   </si>
   <si>
-    <t>Épargne privée brute (millions de dollars US)</t>
+    <t>Épargne privée brute (millions USD)</t>
   </si>
   <si>
     <t>CountryArea</t>
@@ -1611,7 +1611,7 @@
     <t>Agricultural Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production agricole (millions de dollars US)</t>
+    <t>Production agricole (millions USD)</t>
   </si>
   <si>
     <t>CerealProd</t>
@@ -1620,7 +1620,7 @@
     <t>Cereal Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production céréalière (millions de dollars US)</t>
+    <t>Production céréalière (millions USD)</t>
   </si>
   <si>
     <t>CropProd</t>
@@ -1629,7 +1629,7 @@
     <t>Crops Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production des cultures (millions de dollars US)</t>
+    <t>Production des cultures (millions USD)</t>
   </si>
   <si>
     <t>FoodProd</t>
@@ -1638,7 +1638,7 @@
     <t>Food Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production alimentaire (millions de dollars US)</t>
+    <t>Production alimentaire (millions USD)</t>
   </si>
   <si>
     <t>LivStkProd</t>
@@ -1647,7 +1647,7 @@
     <t>Livestock Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production animale (millions de dollars US)</t>
+    <t>Production animale (millions USD)</t>
   </si>
   <si>
     <t>NFoodProd</t>
@@ -1656,7 +1656,7 @@
     <t>Non Food Agricultural Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production agricole non alimentaire (millions de dollars US)</t>
+    <t>Production agricole non alimentaire (millions USD)</t>
   </si>
   <si>
     <t>FoodSupp</t>
@@ -1737,7 +1737,241 @@
     <t>GVC forward participation (value of domestic productions re-exported by the bilateral partners)</t>
   </si>
   <si>
-    <t>Participation à terme aux CVM (valeur des productions nationales réexportées par les partenaires bilatéraux)</t>
+    <t>Participation en aval aux CVM (valeur des productions nationales réexportées par les partenaires bilatéraux)</t>
+  </si>
+  <si>
+    <t>gvcb01</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Agriculture</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Agriculture</t>
+  </si>
+  <si>
+    <t>gvcb02</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Fishing</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Pêche</t>
+  </si>
+  <si>
+    <t>gvcb03</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Mines et carrières</t>
+  </si>
+  <si>
+    <t>gvcb04</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Food &amp; Beverages</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Alimentation et boissons</t>
+  </si>
+  <si>
+    <t>gvcb05</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Textiles and Wearing Apparel</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Textiles et vêtements</t>
+  </si>
+  <si>
+    <t>gvcb06</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Wood and Paper</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Bois et papier</t>
+  </si>
+  <si>
+    <t>gvcb07</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Petroleum, Chemical and Non-Metallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Produits pétroliers, chimiques et minéraux non métalliques</t>
+  </si>
+  <si>
+    <t>gvcb08</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Metal Products</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Produits métalliques</t>
+  </si>
+  <si>
+    <t>gvcb09</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Electrical and Machinery</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Électricité et machinerie</t>
+  </si>
+  <si>
+    <t>gvcb10</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Transport Equipment</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Équipement de transport</t>
+  </si>
+  <si>
+    <t>gvcb11</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Other Manufacturing</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Autres industries manufacturières</t>
+  </si>
+  <si>
+    <t>gvcb12</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Recycling</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Recyclage</t>
+  </si>
+  <si>
+    <t>gvcb13</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Electricity, Gas and Water</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Électricité, gaz et eau</t>
+  </si>
+  <si>
+    <t>gvcb14</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Construction</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Construction</t>
+  </si>
+  <si>
+    <t>gvcb15</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Maintenance and Repair</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Maintenance et réparation</t>
+  </si>
+  <si>
+    <t>gvcb16</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Wholesale Trade</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Commerce de gros</t>
+  </si>
+  <si>
+    <t>gvcb17</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Retail Trade</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Commerce de détail</t>
+  </si>
+  <si>
+    <t>gvcb18</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Hotels and Restaurants</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Hôtels et Restaurants</t>
+  </si>
+  <si>
+    <t>gvcb19</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Transport</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Transport</t>
+  </si>
+  <si>
+    <t>gvcb20</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Post and Telecommunications</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Postes et télécommunications</t>
+  </si>
+  <si>
+    <t>gvcb21</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Financial Intermediation and Business Activities</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Intermédiation financière et activités commerciales</t>
+  </si>
+  <si>
+    <t>gvcb22</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Public Administration</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Administration publique</t>
+  </si>
+  <si>
+    <t>gvcb23</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Education, Health and Other Services</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Éducation, santé et autres services</t>
+  </si>
+  <si>
+    <t>gvcb24</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Private Households</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Ménages privés</t>
+  </si>
+  <si>
+    <t>gvcb25</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Others</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - Autres</t>
+  </si>
+  <si>
+    <t>gvcb26</t>
+  </si>
+  <si>
+    <t>GVC backward participation - Re-export &amp; Re-import</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM - réexportation et réimportation</t>
   </si>
   <si>
     <t>gvcf01</t>
@@ -1974,240 +2208,6 @@
     <t>Participation en aval aux CVM - réexportation et réimportation</t>
   </si>
   <si>
-    <t>gvcb01</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Agriculture</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Agriculture</t>
-  </si>
-  <si>
-    <t>gvcb02</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Fishing</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Pêche</t>
-  </si>
-  <si>
-    <t>gvcb03</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Mines et carrières</t>
-  </si>
-  <si>
-    <t>gvcb04</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Food &amp; Beverages</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Alimentation et boissons</t>
-  </si>
-  <si>
-    <t>gvcb05</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Textiles and Wearing Apparel</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Textiles et vêtements</t>
-  </si>
-  <si>
-    <t>gvcb06</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Wood and Paper</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Bois et papier</t>
-  </si>
-  <si>
-    <t>gvcb07</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Petroleum, Chemical and Non-Metallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Produits pétroliers, chimiques et minéraux non métalliques</t>
-  </si>
-  <si>
-    <t>gvcb08</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Metal Products</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Produits métalliques</t>
-  </si>
-  <si>
-    <t>gvcb09</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Electrical and Machinery</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Électricité et machinerie</t>
-  </si>
-  <si>
-    <t>gvcb10</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Transport Equipment</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Équipement de transport</t>
-  </si>
-  <si>
-    <t>gvcb11</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Other Manufacturing</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Autres industries manufacturières</t>
-  </si>
-  <si>
-    <t>gvcb12</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Recycling</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Recyclage</t>
-  </si>
-  <si>
-    <t>gvcb13</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Electricity, Gas and Water</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Électricité, gaz et eau</t>
-  </si>
-  <si>
-    <t>gvcb14</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Construction</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Construction</t>
-  </si>
-  <si>
-    <t>gvcb15</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Maintenance and Repair</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Maintenance et réparation</t>
-  </si>
-  <si>
-    <t>gvcb16</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Wholesale Trade</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Commerce de gros</t>
-  </si>
-  <si>
-    <t>gvcb17</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Retail Trade</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Commerce de détail</t>
-  </si>
-  <si>
-    <t>gvcb18</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Hotels and Restaurants</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Hôtels et Restaurants</t>
-  </si>
-  <si>
-    <t>gvcb19</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Transport</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Transport</t>
-  </si>
-  <si>
-    <t>gvcb20</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Post and Telecommunications</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Postes et télécommunications</t>
-  </si>
-  <si>
-    <t>gvcb21</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Financial Intermediation and Business Activities</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Intermédiation financière et activités commerciales</t>
-  </si>
-  <si>
-    <t>gvcb22</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Public Administration</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Administration publique</t>
-  </si>
-  <si>
-    <t>gvcb23</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Education, Health and Other Services</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Éducation, santé et autres services</t>
-  </si>
-  <si>
-    <t>gvcb24</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Private Households</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Ménages privés</t>
-  </si>
-  <si>
-    <t>gvcb25</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Others</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Autres</t>
-  </si>
-  <si>
-    <t>gvcb26</t>
-  </si>
-  <si>
-    <t>GVC backward participation - Re-export &amp; Re-import</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - réexportation et réimportation</t>
-  </si>
-  <si>
     <t>VASameCtry</t>
   </si>
   <si>
@@ -2463,19 +2463,55 @@
     <t>TrdCstABBord</t>
   </si>
   <si>
+    <t>Average cost of trade with bordering countries as % of merchandise value, primary goods</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec les pays limitrophes en % de la valeur des marchandises, produits primaires</t>
+  </si>
+  <si>
     <t>TrdCstABAUCReg</t>
   </si>
   <si>
+    <t>Average cost of trade within the same AU region as % of merchandise value, primary goods</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce au sein de la même région de l'UA en % de la valeur des marchandises, produits primaires</t>
+  </si>
+  <si>
     <t>TrdCstABCont</t>
   </si>
   <si>
+    <t>Average cost of trade within continent as % of merchandise value, primary goods</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce à l'intérieur du continent en % de la valeur des marchandises, produits primaires</t>
+  </si>
+  <si>
     <t>TrdCstABWLD</t>
   </si>
   <si>
+    <t>Average cost of trade with all countries as % of merchandise value, primary goods</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec tous les pays en % de la valeur des marchandises, produits primaires</t>
+  </si>
+  <si>
     <t>TrdCstABInternal</t>
   </si>
   <si>
+    <t>Average cost of trade within country group as % of merchandise value, primary goods</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce au sein du groupe de pays en % de la valeur des marchandises, produits primaires</t>
+  </si>
+  <si>
     <t>TrdCstABExternal</t>
+  </si>
+  <si>
+    <t>Average cost of trade with countries outside the country group as % of merchandise value, primary goods</t>
+  </si>
+  <si>
+    <t>Coût moyen du commerce avec les pays hors du groupe de pays en % de la valeur des marchandises, produits primaires</t>
   </si>
   <si>
     <t>ISO9001</t>
@@ -2838,7 +2874,7 @@
   <cols>
     <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -5838,98 +5874,98 @@
         <v>812</v>
       </c>
       <c r="B273" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="C273" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B274" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="C274" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B275" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="C275" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="B276" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="C276" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B277" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="C277" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="B278" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="C278" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="B279" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="C279" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="B280" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="C280" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="B281" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="C281" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$280</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="836">
   <si>
     <t>IndCode</t>
   </si>
@@ -1056,67 +1056,58 @@
     <t>Soutien sociale</t>
   </si>
   <si>
-    <t>GrthDCmpNCP</t>
-  </si>
-  <si>
-    <t>Consumption, private (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Consommation privée (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNCG</t>
-  </si>
-  <si>
-    <t>Consumption, public (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Consommation publique (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFIP</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation, private (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe, privé (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFIG</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation, public (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe publique (% de croissance du PIB)</t>
+    <t>GrthDCmpNC</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Dépense de consommation finale (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>GrthDCmpNFI</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe (% de croissance du PIB)</t>
+  </si>
+  <si>
+    <t>GrthDCmpNINV</t>
+  </si>
+  <si>
+    <t>Changes in inventories (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Variations des stocks (% de croissance du PIB)</t>
   </si>
   <si>
     <t>GrthDCmpNX</t>
   </si>
   <si>
-    <t>Exports of goods and services, current prices (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Exportations des biens et services, prix courants (% de croissance du PIB)</t>
+    <t>Exports of goods and services (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Exportations de biens et services (% de croissance du PIB)</t>
   </si>
   <si>
     <t>GrthDCmpNM</t>
   </si>
   <si>
-    <t>Imports of goods and services, current prices (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Importations de biens et services, prix courants (% de croissance du PIB)</t>
+    <t>Imports of goods and services (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Importations de biens et services (% de croissance du PIB)</t>
   </si>
   <si>
     <t>GrthDCmpNFB</t>
   </si>
   <si>
-    <t>Foreign balance, current prices (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Balance extérieure, prix courants (% de croissance du PIB)</t>
+    <t>Foreign balance (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Balance extérieure (% de croissance du PIB)</t>
   </si>
   <si>
     <t>GovRevPerGDP</t>
@@ -2866,9 +2857,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C281"/>
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5957,17 +5950,6 @@
         <v>835</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>836</v>
-      </c>
-      <c r="B281" t="s">
-        <v>837</v>
-      </c>
-      <c r="C281" t="s">
-        <v>838</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$274</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="860">
   <si>
     <t>IndCode</t>
   </si>
@@ -1056,6 +1056,96 @@
     <t>Soutien sociale</t>
   </si>
   <si>
+    <t>CnsExp</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>Dépense de consommation finale</t>
+  </si>
+  <si>
+    <t>CnsExpPub</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure (public, % of GDP)</t>
+  </si>
+  <si>
+    <t>Dépense de consommation finale (publique)</t>
+  </si>
+  <si>
+    <t>CnsExpPrv</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure (private, % of GDP)</t>
+  </si>
+  <si>
+    <t>Dépense de consommation finale (privée)</t>
+  </si>
+  <si>
+    <t>GFCF</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe</t>
+  </si>
+  <si>
+    <t>GFCFPub</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation (public, % of GDP)</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe (public)</t>
+  </si>
+  <si>
+    <t>GFCFPrv</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation (private, % of GDP)</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe (privé)</t>
+  </si>
+  <si>
+    <t>InvChg</t>
+  </si>
+  <si>
+    <t>Changes in inventories (% of GDP)</t>
+  </si>
+  <si>
+    <t>Variations des stocks</t>
+  </si>
+  <si>
+    <t>FrgnBal</t>
+  </si>
+  <si>
+    <t>Foreign balance (% of GDP)</t>
+  </si>
+  <si>
+    <t>Balance extérieur</t>
+  </si>
+  <si>
+    <t>ImpGdsSrv</t>
+  </si>
+  <si>
+    <t>Imports of goods and services (% of GDP)</t>
+  </si>
+  <si>
+    <t>Importations de biens et services</t>
+  </si>
+  <si>
+    <t>ExpGdsSrv</t>
+  </si>
+  <si>
+    <t>Exports of goods and services (% of GDP)</t>
+  </si>
+  <si>
+    <t>Exportations de biens et services</t>
+  </si>
+  <si>
     <t>GrthDCmpNC</t>
   </si>
   <si>
@@ -1083,6 +1173,15 @@
     <t>Variations des stocks (% de croissance du PIB)</t>
   </si>
   <si>
+    <t>GrthDCmpNM</t>
+  </si>
+  <si>
+    <t>Imports of goods and services (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Importations de biens et services (% de croissance du PIB)</t>
+  </si>
+  <si>
     <t>GrthDCmpNX</t>
   </si>
   <si>
@@ -1092,15 +1191,6 @@
     <t>Exportations de biens et services (% de croissance du PIB)</t>
   </si>
   <si>
-    <t>GrthDCmpNM</t>
-  </si>
-  <si>
-    <t>Imports of goods and services (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Importations de biens et services (% de croissance du PIB)</t>
-  </si>
-  <si>
     <t>GrthDCmpNFB</t>
   </si>
   <si>
@@ -1137,42 +1227,6 @@
     <t>Recettes des administrations publiques, dons en % du PIB</t>
   </si>
   <si>
-    <t>CommodityPerGDP</t>
-  </si>
-  <si>
-    <t>General government commodity-related revenues as a % of GDP</t>
-  </si>
-  <si>
-    <t>Recettes des administrations publiques liées aux produits de base en % du PIB</t>
-  </si>
-  <si>
-    <t>TaxIncPerGDP</t>
-  </si>
-  <si>
-    <t>General government taxes on income, profits, and capital gains as a % of GDP</t>
-  </si>
-  <si>
-    <t>Impôts des administrations publiques sur revenus, bénéfices et gains en capital en % du PIB</t>
-  </si>
-  <si>
-    <t>TaxGdsSrvPerGDP</t>
-  </si>
-  <si>
-    <t>General government taxes on goods and services as a % of GDP</t>
-  </si>
-  <si>
-    <t>Impôts des administrations publiques sur les biens et services en % du PIB</t>
-  </si>
-  <si>
-    <t>TaxTradePerGDP</t>
-  </si>
-  <si>
-    <t>General government taxes on international trade and transactions as a % of GDP</t>
-  </si>
-  <si>
-    <t>Impôts des administrations publiques sur les échanges internationaux en % du PIB</t>
-  </si>
-  <si>
     <t>ExpendPerGDP</t>
   </si>
   <si>
@@ -1191,24 +1245,6 @@
     <t>Dette brute des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>GrossDebtDPerGDP</t>
-  </si>
-  <si>
-    <t>General government domestic currency gross debt as a % of GDP</t>
-  </si>
-  <si>
-    <t>Dette brute en monnaie nationale des administrations publiques en % du PIB</t>
-  </si>
-  <si>
-    <t>GrossDebtFPerGDP</t>
-  </si>
-  <si>
-    <t>General government foreign currency gross debt as a % of GDP</t>
-  </si>
-  <si>
-    <t>Dette brute en devises des administrations publiques en % du PIB</t>
-  </si>
-  <si>
     <t>ExpUnproc</t>
   </si>
   <si>
@@ -1233,7 +1269,7 @@
     <t>Total exports of fully processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Total des exportations de produits transformés (millions USD)</t>
+    <t>Exportations totales de produits transformés (millions USD)</t>
   </si>
   <si>
     <t>ExpAllProc</t>
@@ -1281,6 +1317,51 @@
     <t>Importations totales de produits transformés et non transformés (millions de dollars US)</t>
   </si>
   <si>
+    <t>ExpProd1</t>
+  </si>
+  <si>
+    <t>Product category among 4-digit HS96 classification accounting for the highest share of total value of exports.</t>
+  </si>
+  <si>
+    <t>Catégorie de produits avec la plus grande part des exportations totales</t>
+  </si>
+  <si>
+    <t>ExpProd2</t>
+  </si>
+  <si>
+    <t>Product category among 4-digit HS96 classification accounting for the second highest share of total value of exports.</t>
+  </si>
+  <si>
+    <t>Catégorie de produits constituant la deuxième plus grande % des exportations totales</t>
+  </si>
+  <si>
+    <t>ExpProd3</t>
+  </si>
+  <si>
+    <t>Product category among 4-digit HS96 classification accounting for the third highest share of total value of exports.</t>
+  </si>
+  <si>
+    <t>Catégorie de produits constituant la troisième plus grande % des exportations totales</t>
+  </si>
+  <si>
+    <t>ExpProd4</t>
+  </si>
+  <si>
+    <t>Product category among 4-digit HS96 classification accounting for the fourth highest share of total value of exports.</t>
+  </si>
+  <si>
+    <t>Catégorie de produits constituant la quatrième plus grande % des exportations totales</t>
+  </si>
+  <si>
+    <t>ExpProd5</t>
+  </si>
+  <si>
+    <t>Product category among 4-digit HS96 classification accounting for the fifth highest share of total value of exports.</t>
+  </si>
+  <si>
+    <t>Catégorie de produits constituant la cinquième plus grande % des exportations totales</t>
+  </si>
+  <si>
     <t>ExpProdPct1</t>
   </si>
   <si>
@@ -1351,15 +1432,6 @@
   </si>
   <si>
     <t>Valeur totale des exportations de biens et services en % du PIB</t>
-  </si>
-  <si>
-    <t>HHIProd</t>
-  </si>
-  <si>
-    <t>Herfindahl-Hirschmann Concentration Index of export products</t>
-  </si>
-  <si>
-    <t>Indice de concentration Herfindahl-Hirschmann des produits d'exportation</t>
   </si>
   <si>
     <t>RECExpPct</t>
@@ -2857,11 +2929,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C280"/>
+  <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5950,6 +6020,94 @@
         <v>835</v>
       </c>
     </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>836</v>
+      </c>
+      <c r="B281" t="s">
+        <v>837</v>
+      </c>
+      <c r="C281" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>839</v>
+      </c>
+      <c r="B282" t="s">
+        <v>840</v>
+      </c>
+      <c r="C282" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>842</v>
+      </c>
+      <c r="B283" t="s">
+        <v>843</v>
+      </c>
+      <c r="C283" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>845</v>
+      </c>
+      <c r="B284" t="s">
+        <v>846</v>
+      </c>
+      <c r="C284" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>848</v>
+      </c>
+      <c r="B285" t="s">
+        <v>849</v>
+      </c>
+      <c r="C285" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>851</v>
+      </c>
+      <c r="B286" t="s">
+        <v>852</v>
+      </c>
+      <c r="C286" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>854</v>
+      </c>
+      <c r="B287" t="s">
+        <v>855</v>
+      </c>
+      <c r="C287" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>857</v>
+      </c>
+      <c r="B288" t="s">
+        <v>858</v>
+      </c>
+      <c r="C288" t="s">
+        <v>859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2022_TabIndsCodes.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
-    <sheet name="AfDD_DDAf_2022_TabIndsCodes" sheetId="1" r:id="rId1"/>
+    <sheet name="AfDD_DDAf_2023_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_TabIndsCodes!$A$1:$C$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_TabIndsCodes!$A$1:$C$274</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="878">
   <si>
     <t>IndCode</t>
   </si>
@@ -1437,7 +1437,7 @@
     <t>RECExpPct</t>
   </si>
   <si>
-    <t>Exports to countries in same REC, as a % of total Exports</t>
+    <t>Exports to countries in same REC, as a % of total exports</t>
   </si>
   <si>
     <t>Exportations vers les pays de la même CER, en % du total des exportations</t>
@@ -1446,7 +1446,7 @@
     <t>AUCRegExpPct</t>
   </si>
   <si>
-    <t>Exports to countries in same AUC Region, as a % of total Exports</t>
+    <t>Exports to countries in same AUC Region, as a % of total exports</t>
   </si>
   <si>
     <t>Exportations vers les pays de la même région de la CUA, en % du total des exportations</t>
@@ -1455,7 +1455,7 @@
     <t>ContExpPct</t>
   </si>
   <si>
-    <t>Exports to countries in same continent, as a % of total Exports</t>
+    <t>Exports to countries in same continent, as a % of total exports</t>
   </si>
   <si>
     <t>Exportations vers les pays du même continent, en % du total des exportations</t>
@@ -1464,7 +1464,7 @@
     <t>CHNExpPct</t>
   </si>
   <si>
-    <t>Exports to China, as a % of total Exports</t>
+    <t>Exports to China, as a % of total exports</t>
   </si>
   <si>
     <t>Exportations vers la Chine, en % du total des exportations</t>
@@ -1473,7 +1473,7 @@
     <t>EUExpPct</t>
   </si>
   <si>
-    <t>Exports to EU countries, as a % of total Exports</t>
+    <t>Exports to EU countries, as a % of total exports</t>
   </si>
   <si>
     <t>Exportations vers les pays de l'UE, en % du total des exportations</t>
@@ -1482,10 +1482,64 @@
     <t>USAExpPct</t>
   </si>
   <si>
-    <t>Exports to USA, as a % of total Exports</t>
+    <t>Exports to USA, as a % of total exports</t>
   </si>
   <si>
     <t>Exportations vers les États-Unis, en % du total des exportations</t>
+  </si>
+  <si>
+    <t>RECImpPct</t>
+  </si>
+  <si>
+    <t>Imports to countries in same REC, as a % of total imports</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays de la même CER, en % du total des importations</t>
+  </si>
+  <si>
+    <t>AUCRegImpPct</t>
+  </si>
+  <si>
+    <t>Imports to countries in same AUC Region, as a % of total imports</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays de la même région de la CUA, en % du total des importations</t>
+  </si>
+  <si>
+    <t>ContImpPct</t>
+  </si>
+  <si>
+    <t>Imports to countries in same continent, as a % of total imports</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays du même continent, en % du total des importations</t>
+  </si>
+  <si>
+    <t>CHNImpPct</t>
+  </si>
+  <si>
+    <t>Imports to China, as a % of total imports</t>
+  </si>
+  <si>
+    <t>Importations provenant de la Chine, en % du total des importations</t>
+  </si>
+  <si>
+    <t>EUImpPct</t>
+  </si>
+  <si>
+    <t>Imports to EU countries, as a % of total imports</t>
+  </si>
+  <si>
+    <t>Importations provenant des pays de l'UE, en % du total des importations</t>
+  </si>
+  <si>
+    <t>USAImpPct</t>
+  </si>
+  <si>
+    <t>Imports to USA, as a % of total imports</t>
+  </si>
+  <si>
+    <t>Importations provenant des États-Unis, en % du total des importations</t>
   </si>
   <si>
     <t>IntraCont</t>
@@ -2929,7 +2983,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6108,6 +6162,72 @@
         <v>859</v>
       </c>
     </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>860</v>
+      </c>
+      <c r="B289" t="s">
+        <v>861</v>
+      </c>
+      <c r="C289" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>863</v>
+      </c>
+      <c r="B290" t="s">
+        <v>864</v>
+      </c>
+      <c r="C290" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>866</v>
+      </c>
+      <c r="B291" t="s">
+        <v>867</v>
+      </c>
+      <c r="C291" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>869</v>
+      </c>
+      <c r="B292" t="s">
+        <v>870</v>
+      </c>
+      <c r="C292" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>872</v>
+      </c>
+      <c r="B293" t="s">
+        <v>873</v>
+      </c>
+      <c r="C293" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>875</v>
+      </c>
+      <c r="B294" t="s">
+        <v>876</v>
+      </c>
+      <c r="C294" t="s">
+        <v>877</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
